--- a/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtByPartnerLTForGradation.xlsx
+++ b/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtByPartnerLTForGradation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\ReportHSDetailt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4FFC88-AC30-4F1A-9015-0A0C3EDDF18A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F877EB4-AA34-4381-8969-BC197568095A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDADBC8A-6B6C-45FD-98E5-87326587A42E}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>GBP</t>
   </si>
   <si>
-    <t>BÁO CÁO TỔNG HỢP - THEO  ĐỐI TÁC</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>Tổng</t>
+  </si>
+  <si>
+    <t>BÁO CÁO CHI TIẾT - THEO  ĐỐI TÁC - SO SÁNH</t>
   </si>
 </sst>
 </file>
@@ -188,6 +188,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -210,12 +216,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B6D35-F82E-4989-A479-5B01F28891A5}">
   <dimension ref="B1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,30 +561,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="21" x14ac:dyDescent="0.4">
-      <c r="B1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="B1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
@@ -595,28 +595,28 @@
       <c r="AE1" s="8"/>
     </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
@@ -642,47 +642,47 @@
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="20"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="18"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="W6" s="18"/>
-      <c r="X6" s="19"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="21"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
@@ -690,30 +690,30 @@
       <c r="AG6" s="5"/>
     </row>
     <row r="7" spans="2:33" s="11" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="AB7" s="21"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="AB7" s="13"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
